--- a/reference/IN10/raw_variables/Data1.xlsx
+++ b/reference/IN10/raw_variables/Data1.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,11 +372,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>series_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>value</t>
         </is>
       </c>
@@ -385,2181 +380,1344 @@
       <c r="A2" s="2">
         <v>23743</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>23833</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>-0.003574453588489646</v>
+      <c r="B3">
+        <v>0.006955587808246122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>23924</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>0.0001618966119774964</v>
+      <c r="B4">
+        <v>0.02064525932608952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>24016</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>3.275604228800653e-005</v>
+      <c r="B5">
+        <v>0.04504229774722202</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>24108</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>-0.003804078010055801</v>
+      <c r="B6">
+        <v>0.05696446212510331</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>24198</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>-0.0001761125174870818</v>
+      <c r="B7">
+        <v>0.05691470222519968</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>24289</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>-0.0002977678410714061</v>
+      <c r="B8">
+        <v>0.06542670386117955</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>24381</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>-0.0004167831875796727</v>
+      <c r="B9">
+        <v>0.06660807919113054</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>24473</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>-0.004098309733032735</v>
+      <c r="B10">
+        <v>0.06915876307974411</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>24563</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>-0.0006095047376571076</v>
+      <c r="B11">
+        <v>0.07870104432626413</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>24654</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>0.002768518904738148</v>
+      <c r="B12">
+        <v>0.07885077426498288</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
         <v>24746</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>0.00257425220022609</v>
+      <c r="B13">
+        <v>0.08036300888367887</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
         <v>24838</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>0.002385289956681835</v>
+      <c r="B14">
+        <v>0.0999712340220551</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
         <v>24929</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>0.005540319104736046</v>
+      <c r="B15">
+        <v>0.1118657978548754</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
         <v>25020</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>0.00197842753837516</v>
+      <c r="B16">
+        <v>0.126394434930595</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
         <v>25112</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>0.005046776279878462</v>
+      <c r="B17">
+        <v>0.1260800437222267</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
         <v>25204</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>0.004784909798862569</v>
+      <c r="B18">
+        <v>0.1327828541671341</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
         <v>25294</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>0.004531317664945944</v>
+      <c r="B19">
+        <v>0.135011426476817</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
         <v>25385</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>0.00428561379583956</v>
+      <c r="B20">
+        <v>0.1353221508994071</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
         <v>25477</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C21">
-        <v>0.004047435761397078</v>
+      <c r="B21">
+        <v>0.1382892588691025</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
         <v>25569</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C22">
-        <v>0.0008179400034266978</v>
+      <c r="B22">
+        <v>0.1391202516005663</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
         <v>25659</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C23">
-        <v>0.003636606290929411</v>
+      <c r="B23">
+        <v>0.1384180056700819</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
         <v>25750</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C24">
-        <v>0.003417752471275936</v>
+      <c r="B24">
+        <v>0.141446608971247</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
         <v>25842</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C25">
-        <v>0.003205233396889029</v>
+      <c r="B25">
+        <v>0.1327731320858732</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
         <v>25934</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C26">
-        <v>0.005827634147654836</v>
+      <c r="B26">
+        <v>0.1462349552417299</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
         <v>26024</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C27">
-        <v>0.005540319104735824</v>
+      <c r="B27">
+        <v>0.1497180705512839</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
         <v>26115</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C28">
-        <v>0.002526522920690532</v>
+      <c r="B28">
+        <v>0.1521346181062242</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
         <v>26207</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C29">
-        <v>0.002338852844133465</v>
+      <c r="B29">
+        <v>0.1629928397631124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
         <v>26299</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C30">
-        <v>0.02065080375665949</v>
+      <c r="B30">
+        <v>0.1648983904309929</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
         <v>26390</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C31">
-        <v>0.001737285211561334</v>
+      <c r="B31">
+        <v>0.1783776406697086</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
         <v>26481</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C32">
-        <v>0.001570347549035378</v>
+      <c r="B32">
+        <v>0.1883119105774216</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
         <v>26573</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C33">
-        <v>0.006432777887755736</v>
+      <c r="B33">
+        <v>0.2065539518356552</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
         <v>26665</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C34">
-        <v>0.001186661859641202</v>
+      <c r="B34">
+        <v>0.2193302629487226</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
         <v>26755</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C35">
-        <v>0.003475482525558049</v>
+      <c r="B35">
+        <v>0.2136344690648446</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
         <v>26846</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C36">
-        <v>0.00566226288880276</v>
+      <c r="B36">
+        <v>0.2120433884301578</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
         <v>26938</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C37">
-        <v>0.003019158035831171</v>
+      <c r="B37">
+        <v>0.2040227618143162</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
         <v>27030</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C38">
-        <v>0.002817940670093643</v>
+      <c r="B38">
+        <v>0.1902493078171808</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
         <v>27120</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C39">
-        <v>0.01177569493550898</v>
+      <c r="B39">
+        <v>0.1891421118044914</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
         <v>27211</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C40">
-        <v>0.01125667545543771</v>
+      <c r="B40">
+        <v>0.1885992309322337</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
         <v>27303</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C41">
-        <v>0.008579497160285254</v>
+      <c r="B41">
+        <v>0.1690814647363772</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
         <v>27395</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C42">
-        <v>-0.0004089292395961456</v>
+      <c r="B42">
+        <v>0.1727322677858494</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
         <v>27485</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C43">
-        <v>0.001608915148399981</v>
+      <c r="B43">
+        <v>0.184175936644813</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
         <v>27576</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C44">
-        <v>0.00354828657349524</v>
+      <c r="B44">
+        <v>0.1926164549688307</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
         <v>27668</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C45">
-        <v>0.005400253273566391</v>
+      <c r="B45">
+        <v>0.1980551838029241</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
         <v>27760</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C46">
-        <v>0.007157468114413068</v>
+      <c r="B46">
+        <v>0.212971280139838</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
         <v>27851</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C47">
-        <v>0.004830127830529362</v>
+      <c r="B47">
+        <v>0.2173317788790365</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
         <v>27942</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C48">
-        <v>0.008496689907194299</v>
+      <c r="B48">
+        <v>0.2229314129043427</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
         <v>28034</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C49">
-        <v>0.006192422160123256</v>
+      <c r="B49">
+        <v>0.2315719159283938</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
         <v>28126</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C50">
-        <v>0.007781395759049103</v>
+      <c r="B50">
+        <v>0.2389817948944173</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
         <v>28216</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C51">
-        <v>0.00742533380050745</v>
+      <c r="B51">
+        <v>0.2396943716233269</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
         <v>28307</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C52">
-        <v>0.003439348178050116</v>
+      <c r="B52">
+        <v>0.2442752794324781</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
         <v>28399</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C53">
-        <v>0.008607386995438148</v>
+      <c r="B53">
+        <v>0.2547604878163883</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
         <v>28491</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C54">
-        <v>0.006464161759586617</v>
+      <c r="B54">
+        <v>0.2561050633913022</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
         <v>28581</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C55">
-        <v>0.01303995301251601</v>
+      <c r="B55">
+        <v>0.2729071578495783</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
         <v>28672</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C56">
-        <v>0.005740413435587599</v>
+      <c r="B56">
+        <v>0.272682019601187</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
         <v>28764</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C57">
-        <v>0.01041878785994375</v>
+      <c r="B57">
+        <v>0.2761130875328752</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
         <v>28856</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C58">
-        <v>0.008341672176731074</v>
+      <c r="B58">
+        <v>0.2768467001818169</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
         <v>28946</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C59">
-        <v>0.003191283963584568</v>
+      <c r="B59">
+        <v>0.2722495153473949</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
         <v>29037</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C60">
-        <v>0.009254836509151576</v>
+      <c r="B60">
+        <v>0.2775312404881536</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
         <v>29129</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C61">
-        <v>0.007309586361289954</v>
+      <c r="B61">
+        <v>0.2752495338803538</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
         <v>29221</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C62">
-        <v>0.005463629047564233</v>
+      <c r="B62">
+        <v>0.2694147635177506</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
         <v>29312</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C63">
-        <v>0.009629483514767201</v>
+      <c r="B63">
+        <v>0.2429356168117307</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
         <v>29403</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C64">
-        <v>0.009201751643749678</v>
+      <c r="B64">
+        <v>0.2496186625514607</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
         <v>29495</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C65">
-        <v>0.01303747071440451</v>
+      <c r="B65">
+        <v>0.2593941145374341</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
         <v>29587</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C66">
-        <v>0.01108049948035126</v>
+      <c r="B66">
+        <v>0.2601794576057661</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
         <v>29677</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C67">
-        <v>0.006529700591974863</v>
+      <c r="B67">
+        <v>0.2571223472427175</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
         <v>29768</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C68">
-        <v>0.008881632548857632</v>
+      <c r="B68">
+        <v>0.257702889997065</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
         <v>29860</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C69">
-        <v>0.001943432525161248</v>
+      <c r="B69">
+        <v>0.2467263387035938</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
         <v>29952</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C70">
-        <v>0.004358518691435864</v>
+      <c r="B70">
+        <v>0.2503427843228625</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
         <v>30042</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C71">
-        <v>-0.0009839322560614375</v>
+      <c r="B71">
+        <v>0.2508170447408276</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
         <v>30133</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C72">
-        <v>0.001439852057469415</v>
+      <c r="B72">
+        <v>0.255567453444375</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
         <v>30225</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C73">
-        <v>-0.002467245259796714</v>
+      <c r="B73">
+        <v>0.2705517249202787</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
         <v>30317</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C74">
-        <v>0.001171172080571803</v>
+      <c r="B74">
+        <v>0.2776460250919324</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
         <v>30407</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C75">
-        <v>-0.002651361306030187</v>
+      <c r="B75">
+        <v>0.2947452704176197</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
         <v>30498</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C76">
-        <v>-0.002724953498682426</v>
+      <c r="B76">
+        <v>0.3095149820232583</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
         <v>30590</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C77">
-        <v>-0.0003905590675064245</v>
+      <c r="B77">
+        <v>0.3222905143397195</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
         <v>30682</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C78">
-        <v>-0.002888533565647689</v>
+      <c r="B78">
+        <v>0.326706696980315</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
         <v>30773</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C79">
-        <v>-0.002958146072628254</v>
+      <c r="B79">
+        <v>0.338404446446523</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
         <v>30864</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C80">
-        <v>-0.003026611326189888</v>
+      <c r="B80">
+        <v>0.3434512958458531</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
         <v>30956</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C81">
-        <v>-0.005422247215361798</v>
+      <c r="B81">
+        <v>0.3535022009070916</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
         <v>31048</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C82">
-        <v>-0.004298129895552028</v>
+      <c r="B82">
+        <v>0.3679564677652558</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
         <v>31138</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C83">
-        <v>-0.003197591163198088</v>
+      <c r="B83">
+        <v>0.3746382988209178</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
         <v>31229</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C84">
-        <v>-0.004401783691965222</v>
+      <c r="B84">
+        <v>0.3908100420589906</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
         <v>31321</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C85">
-        <v>-0.004448590979868184</v>
+      <c r="B85">
+        <v>0.3901156989288506</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
         <v>31413</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C86">
-        <v>-0.006747017506026265</v>
+      <c r="B86">
+        <v>0.3934816724272516</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
         <v>31503</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C87">
-        <v>-0.007890318795039009</v>
+      <c r="B87">
+        <v>0.401267009274151</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
         <v>31594</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C88">
-        <v>-0.007901681061331734</v>
+      <c r="B88">
+        <v>0.4156132842623914</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
         <v>31686</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C89">
-        <v>-0.004570345616524052</v>
+      <c r="B89">
+        <v>0.4190428139888964</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
         <v>31778</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C90">
-        <v>-0.00461488998333961</v>
+      <c r="B90">
+        <v>0.4159843098022655</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
         <v>31868</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C91">
-        <v>-0.005757143400675813</v>
+      <c r="B91">
+        <v>0.4266615952746848</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
         <v>31959</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C92">
-        <v>-0.004695034048410674</v>
+      <c r="B92">
+        <v>0.4351688573967296</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
         <v>32051</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C93">
-        <v>-0.0004089292395961456</v>
+      <c r="B93">
+        <v>0.435155660427466</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
         <v>32143</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C94">
-        <v>-0.006956447710523084</v>
+      <c r="B94">
+        <v>0.4489370324962314</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
         <v>32234</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C95">
-        <v>-0.0005715100948973321</v>
+      <c r="B95">
+        <v>0.4537686073009479</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
         <v>32325</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C96">
-        <v>-0.003847581289616842</v>
+      <c r="B96">
+        <v>0.4596487837144325</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
         <v>32417</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C97">
-        <v>0.000281885573136775</v>
+      <c r="B97">
+        <v>0.4690798044529307</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
         <v>32509</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C98">
-        <v>-0.0008824899059285633</v>
+      <c r="B98">
+        <v>0.4699976185867074</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
         <v>32599</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C99">
-        <v>-0.004061415490375109</v>
+      <c r="B99">
+        <v>0.4725160706026936</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
         <v>32690</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C100">
-        <v>-0.002078373157239377</v>
+      <c r="B100">
+        <v>0.4797169721699</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
         <v>32782</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C101">
-        <v>-0.0001499591053058195</v>
+      <c r="B101">
+        <v>0.4820567641572713</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
         <v>32874</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C102">
-        <v>0.0007213563483241311</v>
+      <c r="B102">
+        <v>0.4821412399043865</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
         <v>32964</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C103">
-        <v>-0.002369063791780169</v>
+      <c r="B103">
+        <v>0.4833796692816894</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
         <v>33055</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C104">
-        <v>-0.002447535777564203</v>
+      <c r="B104">
+        <v>0.4851671668367259</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
         <v>33147</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C105">
-        <v>-0.004460744742645706</v>
+      <c r="B105">
+        <v>0.4752790044863722</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
         <v>33239</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C106">
-        <v>-0.004506754153926118</v>
+      <c r="B106">
+        <v>0.4688886871685343</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
         <v>33329</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C107">
-        <v>-0.00168818191457556</v>
+      <c r="B107">
+        <v>0.4755513615997447</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
         <v>33420</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C108">
-        <v>-0.004615943341735674</v>
+      <c r="B108">
+        <v>0.4774371187899482</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
         <v>33512</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C109">
-        <v>-0.006543124863869232</v>
+      <c r="B109">
+        <v>0.4737924796594055</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
         <v>33604</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C110">
-        <v>-0.005627686523874709</v>
+      <c r="B110">
+        <v>0.4879412867745341</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
         <v>33695</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C111">
-        <v>-0.004727775444588933</v>
+      <c r="B111">
+        <v>0.4914218490444569</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
         <v>33786</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C112">
-        <v>-0.004770256641247106</v>
+      <c r="B112">
+        <v>0.4986437164175972</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
         <v>33878</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C113">
-        <v>-0.00573172972964422</v>
+      <c r="B113">
+        <v>0.5071464344685981</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
         <v>33970</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C114">
-        <v>-0.003021218824893724</v>
+      <c r="B114">
+        <v>0.5081857621501342</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
         <v>34060</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C115">
-        <v>-0.006715129996926384</v>
+      <c r="B115">
+        <v>0.5147077044962352</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
         <v>34151</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C116">
-        <v>-0.004929068627095768</v>
+      <c r="B116">
+        <v>0.5229380921943618</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
         <v>34243</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C117">
-        <v>-0.004968982624655305</v>
+      <c r="B117">
+        <v>0.5289614489694565</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
         <v>34335</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C118">
-        <v>-0.00322745265222848</v>
+      <c r="B118">
+        <v>0.5376275021960812</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
         <v>34425</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C119">
-        <v>-0.006828265515619792</v>
+      <c r="B119">
+        <v>0.542583502629582</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
         <v>34516</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C120">
-        <v>-0.005085764080210465</v>
+      <c r="B120">
+        <v>0.5470313137882221</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
         <v>34608</v>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C121">
-        <v>-0.003375482504401917</v>
+      <c r="B121">
+        <v>0.5541786654010621</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
         <v>34700</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C122">
-        <v>-0.005171873944148886</v>
+      <c r="B122">
+        <v>0.5543425669008943</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
         <v>34790</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C123">
-        <v>-0.004346356367071392</v>
+      <c r="B123">
+        <v>0.5605095156131115</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
         <v>34881</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C124">
-        <v>-0.002683055520253963</v>
+      <c r="B124">
+        <v>0.5666015835900664</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
         <v>34973</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C125">
-        <v>-0.004452462791915158</v>
+      <c r="B125">
+        <v>0.5706737465008813</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
         <v>35065</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C126">
-        <v>-0.003655768813509508</v>
+      <c r="B126">
+        <v>0.5773348453390015</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
         <v>35156</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C127">
-        <v>-0.00120803879379896</v>
+      <c r="B127">
+        <v>0.5856369237906938</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
         <v>35247</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C128">
-        <v>-0.002961103624366879</v>
+      <c r="B128">
+        <v>0.5891569135568355</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
         <v>35339</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C129">
-        <v>-0.002209512099135691</v>
+      <c r="B129">
+        <v>0.5944195105084029</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
         <v>35431</v>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C130">
-        <v>-0.0006674337746033435</v>
+      <c r="B130">
+        <v>0.6005242495255718</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
         <v>35521</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C131">
-        <v>-0.00318921086527848</v>
+      <c r="B131">
+        <v>0.602991037378088</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
         <v>35612</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C132">
-        <v>-0.0008625436942124812</v>
+      <c r="B132">
+        <v>0.6166687516706397</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
         <v>35704</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C133">
-        <v>0.0006051249496650032</v>
+      <c r="B133">
+        <v>0.6241660602927319</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
         <v>35796</v>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C134">
-        <v>-0.001869705785463105</v>
+      <c r="B134">
+        <v>0.6328787005095102</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
         <v>35886</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C135">
-        <v>-0.001185286915061501</v>
+      <c r="B135">
+        <v>0.646153495852551</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
         <v>35977</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C136">
-        <v>-0.002814962499643437</v>
+      <c r="B136">
+        <v>0.6553454719966547</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
         <v>36069</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C137">
-        <v>-0.002885797773414934</v>
+      <c r="B137">
+        <v>0.6657447645702148</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
         <v>36161</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C138">
-        <v>-0.002203293058298273</v>
+      <c r="B138">
+        <v>0.6719292006423898</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
         <v>36251</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C139">
-        <v>-0.001539823904207283</v>
+      <c r="B139">
+        <v>0.6847159959252371</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
         <v>36342</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C140">
-        <v>-0.001633527234542265</v>
+      <c r="B140">
+        <v>0.692168628675057</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
         <v>36434</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C141">
-        <v>-0.003187430988036444</v>
+      <c r="B141">
+        <v>0.7015036491010425</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
         <v>36526</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C142">
-        <v>-0.001801857784344408</v>
+      <c r="B142">
+        <v>0.7033902285533951</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
         <v>36617</v>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C143">
-        <v>-0.001172986042426794</v>
+      <c r="B143">
+        <v>0.7065799124526175</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
         <v>36708</v>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C144">
-        <v>-0.001273853814126836</v>
+      <c r="B144">
+        <v>0.7130009136884783</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
         <v>36800</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C145">
-        <v>-0.0006697378397806601</v>
+      <c r="B145">
+        <v>0.71838162051746</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
         <v>36892</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C146">
-        <v>-0.002172647693328167</v>
+      <c r="B146">
+        <v>0.7199603414257192</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
         <v>36982</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C147">
-        <v>-0.001564713405194618</v>
+      <c r="B147">
+        <v>0.7195055098260759</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
         <v>37073</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C148">
-        <v>-0.004393919923883183</v>
+      <c r="B148">
+        <v>0.7207020807558271</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
         <v>37165</v>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C149">
-        <v>-0.003760793312590072</v>
+      <c r="B149">
+        <v>0.7343315905014456</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
         <v>37257</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C150">
-        <v>-0.005843057102282967</v>
+      <c r="B150">
+        <v>0.7352799579768932</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
         <v>37347</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C151">
-        <v>-0.004528229238436344</v>
+      <c r="B151">
+        <v>0.7386382348192249</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
         <v>37438</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C152">
-        <v>-0.002573999571574359</v>
+      <c r="B152">
+        <v>0.7411747909274591</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
         <v>37530</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C153">
-        <v>-0.001989065333408058</v>
+      <c r="B153">
+        <v>0.7415848883262211</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
         <v>37622</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C154">
-        <v>-0.004692153569560121</v>
+      <c r="B154">
+        <v>0.7395658264273357</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
         <v>37712</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C155">
-        <v>-0.006690132184233666</v>
+      <c r="B155">
+        <v>0.7454724617132</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
         <v>37803</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C156">
-        <v>-0.005413123960184696</v>
+      <c r="B156">
+        <v>0.7563206178009501</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
         <v>37895</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C157">
-        <v>-0.008676124187552614</v>
+      <c r="B157">
+        <v>0.7584966832791191</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2">
         <v>37987</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C158">
-        <v>-0.006105497431419882</v>
+      <c r="B158">
+        <v>0.7696334556628752</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
         <v>38078</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C159">
-        <v>-0.004852409033981453</v>
+      <c r="B159">
+        <v>0.7741356156889592</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
         <v>38169</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C160">
-        <v>-0.004258169057168382</v>
+      <c r="B160">
+        <v>0.7805726657485108</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
         <v>38261</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C161">
-        <v>-0.004937664159998101</v>
+      <c r="B161">
+        <v>0.7877403180016733</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
         <v>38353</v>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C162">
-        <v>-0.005604626172865968</v>
+      <c r="B162">
+        <v>0.7917619914622445</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
         <v>38443</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C163">
-        <v>-0.004389622997689214</v>
+      <c r="B163">
+        <v>0.7992746018376047</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
         <v>38534</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C164">
-        <v>-0.00319973715732449</v>
+      <c r="B164">
+        <v>0.8055742340445695</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
         <v>38626</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C165">
-        <v>-0.002038803859617322</v>
+      <c r="B165">
+        <v>0.8040470879301891</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
         <v>38718</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C166">
-        <v>-0.001516569622511477</v>
+      <c r="B166">
+        <v>0.8133135268195737</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
         <v>38808</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C167">
-        <v>-0.0004102390204501431</v>
+      <c r="B167">
+        <v>0.8167571689996982</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2">
         <v>38899</v>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C168">
-        <v>-0.001120487160167572</v>
+      <c r="B168">
+        <v>0.820506293957179</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
         <v>38991</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>AHETPI</t>
-        </is>
-      </c>
-      <c r="C169">
-        <v>-0.001810463969609733</v>
+      <c r="B169">
+        <v>0.8277140995582468</v>
       </c>
     </row>
   </sheetData>

--- a/reference/IN10/raw_variables/Data1.xlsx
+++ b/reference/IN10/raw_variables/Data1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pi_dm_obs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -381,7 +381,7 @@
         <v>23743</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>27.883</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +389,7 @@
         <v>23833</v>
       </c>
       <c r="B3">
-        <v>0.006955587808246122</v>
+        <v>27.907</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>23924</v>
       </c>
       <c r="B4">
-        <v>0.02064525932608952</v>
+        <v>28.017</v>
       </c>
     </row>
     <row r="5">
@@ -405,7 +405,7 @@
         <v>24016</v>
       </c>
       <c r="B5">
-        <v>0.04504229774722202</v>
+        <v>28.092</v>
       </c>
     </row>
     <row r="6">
@@ -413,7 +413,7 @@
         <v>24108</v>
       </c>
       <c r="B6">
-        <v>0.05696446212510331</v>
+        <v>28.188</v>
       </c>
     </row>
     <row r="7">
@@ -421,7 +421,7 @@
         <v>24198</v>
       </c>
       <c r="B7">
-        <v>0.05691470222519968</v>
+        <v>28.484</v>
       </c>
     </row>
     <row r="8">
@@ -429,7 +429,7 @@
         <v>24289</v>
       </c>
       <c r="B8">
-        <v>0.06542670386117955</v>
+        <v>28.711</v>
       </c>
     </row>
     <row r="9">
@@ -437,7 +437,7 @@
         <v>24381</v>
       </c>
       <c r="B9">
-        <v>0.06660807919113054</v>
+        <v>29.053</v>
       </c>
     </row>
     <row r="10">
@@ -445,7 +445,7 @@
         <v>24473</v>
       </c>
       <c r="B10">
-        <v>0.06915876307974411</v>
+        <v>29.201</v>
       </c>
     </row>
     <row r="11">
@@ -453,7 +453,7 @@
         <v>24563</v>
       </c>
       <c r="B11">
-        <v>0.07870104432626413</v>
+        <v>29.373</v>
       </c>
     </row>
     <row r="12">
@@ -461,7 +461,7 @@
         <v>24654</v>
       </c>
       <c r="B12">
-        <v>0.07885077426498288</v>
+        <v>29.633</v>
       </c>
     </row>
     <row r="13">
@@ -469,7 +469,7 @@
         <v>24746</v>
       </c>
       <c r="B13">
-        <v>0.08036300888367887</v>
+        <v>29.913</v>
       </c>
     </row>
     <row r="14">
@@ -477,7 +477,7 @@
         <v>24838</v>
       </c>
       <c r="B14">
-        <v>0.0999712340220551</v>
+        <v>30.224</v>
       </c>
     </row>
     <row r="15">
@@ -485,7 +485,7 @@
         <v>24929</v>
       </c>
       <c r="B15">
-        <v>0.1118657978548754</v>
+        <v>30.566</v>
       </c>
     </row>
     <row r="16">
@@ -493,7 +493,7 @@
         <v>25020</v>
       </c>
       <c r="B16">
-        <v>0.126394434930595</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="17">
@@ -501,7 +501,7 @@
         <v>25112</v>
       </c>
       <c r="B17">
-        <v>0.1260800437222267</v>
+        <v>31.213</v>
       </c>
     </row>
     <row r="18">
@@ -509,7 +509,7 @@
         <v>25204</v>
       </c>
       <c r="B18">
-        <v>0.1327828541671341</v>
+        <v>31.569</v>
       </c>
     </row>
     <row r="19">
@@ -517,7 +517,7 @@
         <v>25294</v>
       </c>
       <c r="B19">
-        <v>0.135011426476817</v>
+        <v>31.932</v>
       </c>
     </row>
     <row r="20">
@@ -525,7 +525,7 @@
         <v>25385</v>
       </c>
       <c r="B20">
-        <v>0.1353221508994071</v>
+        <v>32.264</v>
       </c>
     </row>
     <row r="21">
@@ -533,7 +533,7 @@
         <v>25477</v>
       </c>
       <c r="B21">
-        <v>0.1382892588691025</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="22">
@@ -541,7 +541,7 @@
         <v>25569</v>
       </c>
       <c r="B22">
-        <v>0.1391202516005663</v>
+        <v>32.957</v>
       </c>
     </row>
     <row r="23">
@@ -549,7 +549,7 @@
         <v>25659</v>
       </c>
       <c r="B23">
-        <v>0.1384180056700819</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="24">
@@ -557,7 +557,7 @@
         <v>25750</v>
       </c>
       <c r="B24">
-        <v>0.141446608971247</v>
+        <v>33.599</v>
       </c>
     </row>
     <row r="25">
@@ -565,7 +565,7 @@
         <v>25842</v>
       </c>
       <c r="B25">
-        <v>0.1327731320858732</v>
+        <v>34.094</v>
       </c>
     </row>
     <row r="26">
@@ -573,7 +573,7 @@
         <v>25934</v>
       </c>
       <c r="B26">
-        <v>0.1462349552417299</v>
+        <v>34.449</v>
       </c>
     </row>
     <row r="27">
@@ -581,7 +581,7 @@
         <v>26024</v>
       </c>
       <c r="B27">
-        <v>0.1497180705512839</v>
+        <v>34.868</v>
       </c>
     </row>
     <row r="28">
@@ -589,7 +589,7 @@
         <v>26115</v>
       </c>
       <c r="B28">
-        <v>0.1521346181062242</v>
+        <v>35.203</v>
       </c>
     </row>
     <row r="29">
@@ -597,7 +597,7 @@
         <v>26207</v>
       </c>
       <c r="B29">
-        <v>0.1629928397631124</v>
+        <v>35.35</v>
       </c>
     </row>
     <row r="30">
@@ -605,7 +605,7 @@
         <v>26299</v>
       </c>
       <c r="B30">
-        <v>0.1648983904309929</v>
+        <v>35.785</v>
       </c>
     </row>
     <row r="31">
@@ -613,7 +613,7 @@
         <v>26390</v>
       </c>
       <c r="B31">
-        <v>0.1783776406697086</v>
+        <v>35.946</v>
       </c>
     </row>
     <row r="32">
@@ -621,7 +621,7 @@
         <v>26481</v>
       </c>
       <c r="B32">
-        <v>0.1883119105774216</v>
+        <v>36.18</v>
       </c>
     </row>
     <row r="33">
@@ -629,7 +629,7 @@
         <v>26573</v>
       </c>
       <c r="B33">
-        <v>0.2065539518356552</v>
+        <v>36.394</v>
       </c>
     </row>
     <row r="34">
@@ -637,7 +637,7 @@
         <v>26665</v>
       </c>
       <c r="B34">
-        <v>0.2193302629487226</v>
+        <v>36.604</v>
       </c>
     </row>
     <row r="35">
@@ -645,7 +645,7 @@
         <v>26755</v>
       </c>
       <c r="B35">
-        <v>0.2136344690648446</v>
+        <v>37.015</v>
       </c>
     </row>
     <row r="36">
@@ -653,7 +653,7 @@
         <v>26846</v>
       </c>
       <c r="B36">
-        <v>0.2120433884301578</v>
+        <v>37.481</v>
       </c>
     </row>
     <row r="37">
@@ -661,7 +661,7 @@
         <v>26938</v>
       </c>
       <c r="B37">
-        <v>0.2040227618143162</v>
+        <v>38.352</v>
       </c>
     </row>
     <row r="38">
@@ -669,7 +669,7 @@
         <v>27030</v>
       </c>
       <c r="B38">
-        <v>0.1902493078171808</v>
+        <v>39.175</v>
       </c>
     </row>
     <row r="39">
@@ -677,7 +677,7 @@
         <v>27120</v>
       </c>
       <c r="B39">
-        <v>0.1891421118044914</v>
+        <v>40.603</v>
       </c>
     </row>
     <row r="40">
@@ -685,7 +685,7 @@
         <v>27211</v>
       </c>
       <c r="B40">
-        <v>0.1885992309322337</v>
+        <v>41.859</v>
       </c>
     </row>
     <row r="41">
@@ -693,7 +693,7 @@
         <v>27303</v>
       </c>
       <c r="B41">
-        <v>0.1690814647363772</v>
+        <v>43.116</v>
       </c>
     </row>
     <row r="42">
@@ -701,7 +701,7 @@
         <v>27395</v>
       </c>
       <c r="B42">
-        <v>0.1727322677858494</v>
+        <v>44.533</v>
       </c>
     </row>
     <row r="43">
@@ -709,7 +709,7 @@
         <v>27485</v>
       </c>
       <c r="B43">
-        <v>0.184175936644813</v>
+        <v>45.231</v>
       </c>
     </row>
     <row r="44">
@@ -717,7 +717,7 @@
         <v>27576</v>
       </c>
       <c r="B44">
-        <v>0.1926164549688307</v>
+        <v>45.981</v>
       </c>
     </row>
     <row r="45">
@@ -725,7 +725,7 @@
         <v>27668</v>
       </c>
       <c r="B45">
-        <v>0.1980551838029241</v>
+        <v>46.659</v>
       </c>
     </row>
     <row r="46">
@@ -733,7 +733,7 @@
         <v>27760</v>
       </c>
       <c r="B46">
-        <v>0.212971280139838</v>
+        <v>47.196</v>
       </c>
     </row>
     <row r="47">
@@ -741,7 +741,7 @@
         <v>27851</v>
       </c>
       <c r="B47">
-        <v>0.2173317788790365</v>
+        <v>47.709</v>
       </c>
     </row>
     <row r="48">
@@ -749,7 +749,7 @@
         <v>27942</v>
       </c>
       <c r="B48">
-        <v>0.2229314129043427</v>
+        <v>48.402</v>
       </c>
     </row>
     <row r="49">
@@ -757,7 +757,7 @@
         <v>28034</v>
       </c>
       <c r="B49">
-        <v>0.2315719159283938</v>
+        <v>49.26</v>
       </c>
     </row>
     <row r="50">
@@ -765,7 +765,7 @@
         <v>28126</v>
       </c>
       <c r="B50">
-        <v>0.2389817948944173</v>
+        <v>49.978</v>
       </c>
     </row>
     <row r="51">
@@ -773,7 +773,7 @@
         <v>28216</v>
       </c>
       <c r="B51">
-        <v>0.2396943716233269</v>
+        <v>50.802</v>
       </c>
     </row>
     <row r="52">
@@ -781,7 +781,7 @@
         <v>28307</v>
       </c>
       <c r="B52">
-        <v>0.2442752794324781</v>
+        <v>51.481</v>
       </c>
     </row>
     <row r="53">
@@ -789,7 +789,7 @@
         <v>28399</v>
       </c>
       <c r="B53">
-        <v>0.2547604878163883</v>
+        <v>52.415</v>
       </c>
     </row>
     <row r="54">
@@ -797,7 +797,7 @@
         <v>28491</v>
       </c>
       <c r="B54">
-        <v>0.2561050633913022</v>
+        <v>53.06</v>
       </c>
     </row>
     <row r="55">
@@ -805,7 +805,7 @@
         <v>28581</v>
       </c>
       <c r="B55">
-        <v>0.2729071578495783</v>
+        <v>54.03</v>
       </c>
     </row>
     <row r="56">
@@ -813,7 +813,7 @@
         <v>28672</v>
       </c>
       <c r="B56">
-        <v>0.272682019601187</v>
+        <v>55.065</v>
       </c>
     </row>
     <row r="57">
@@ -821,7 +821,7 @@
         <v>28764</v>
       </c>
       <c r="B57">
-        <v>0.2761130875328752</v>
+        <v>56.185</v>
       </c>
     </row>
     <row r="58">
@@ -829,7 +829,7 @@
         <v>28856</v>
       </c>
       <c r="B58">
-        <v>0.2768467001818169</v>
+        <v>57.084</v>
       </c>
     </row>
     <row r="59">
@@ -837,7 +837,7 @@
         <v>28946</v>
       </c>
       <c r="B59">
-        <v>0.2722495153473949</v>
+        <v>58.702</v>
       </c>
     </row>
     <row r="60">
@@ -845,7 +845,7 @@
         <v>29037</v>
       </c>
       <c r="B60">
-        <v>0.2775312404881536</v>
+        <v>59.953</v>
       </c>
     </row>
     <row r="61">
@@ -853,7 +853,7 @@
         <v>29129</v>
       </c>
       <c r="B61">
-        <v>0.2752495338803538</v>
+        <v>61.137</v>
       </c>
     </row>
     <row r="62">
@@ -861,7 +861,7 @@
         <v>29221</v>
       </c>
       <c r="B62">
-        <v>0.2694147635177506</v>
+        <v>62.702</v>
       </c>
     </row>
     <row r="63">
@@ -869,7 +869,7 @@
         <v>29312</v>
       </c>
       <c r="B63">
-        <v>0.2429356168117307</v>
+        <v>64.477</v>
       </c>
     </row>
     <row r="64">
@@ -877,7 +877,7 @@
         <v>29403</v>
       </c>
       <c r="B64">
-        <v>0.2496186625514607</v>
+        <v>65.488</v>
       </c>
     </row>
     <row r="65">
@@ -885,7 +885,7 @@
         <v>29495</v>
       </c>
       <c r="B65">
-        <v>0.2593941145374341</v>
+        <v>66.91200000000001</v>
       </c>
     </row>
     <row r="66">
@@ -893,7 +893,7 @@
         <v>29587</v>
       </c>
       <c r="B66">
-        <v>0.2601794576057661</v>
+        <v>69.017</v>
       </c>
     </row>
     <row r="67">
@@ -901,7 +901,7 @@
         <v>29677</v>
       </c>
       <c r="B67">
-        <v>0.2571223472427175</v>
+        <v>70.402</v>
       </c>
     </row>
     <row r="68">
@@ -909,7 +909,7 @@
         <v>29768</v>
       </c>
       <c r="B68">
-        <v>0.257702889997065</v>
+        <v>71.893</v>
       </c>
     </row>
     <row r="69">
@@ -917,7 +917,7 @@
         <v>29860</v>
       </c>
       <c r="B69">
-        <v>0.2467263387035938</v>
+        <v>73.209</v>
       </c>
     </row>
     <row r="70">
@@ -925,7 +925,7 @@
         <v>29952</v>
       </c>
       <c r="B70">
-        <v>0.2503427843228625</v>
+        <v>74.172</v>
       </c>
     </row>
     <row r="71">
@@ -933,7 +933,7 @@
         <v>30042</v>
       </c>
       <c r="B71">
-        <v>0.2508170447408276</v>
+        <v>75.06100000000001</v>
       </c>
     </row>
     <row r="72">
@@ -941,7 +941,7 @@
         <v>30133</v>
       </c>
       <c r="B72">
-        <v>0.255567453444375</v>
+        <v>75.988</v>
       </c>
     </row>
     <row r="73">
@@ -949,7 +949,7 @@
         <v>30225</v>
       </c>
       <c r="B73">
-        <v>0.2705517249202787</v>
+        <v>76.807</v>
       </c>
     </row>
     <row r="74">
@@ -957,7 +957,7 @@
         <v>30317</v>
       </c>
       <c r="B74">
-        <v>0.2776460250919324</v>
+        <v>77.16500000000001</v>
       </c>
     </row>
     <row r="75">
@@ -965,7 +965,7 @@
         <v>30407</v>
       </c>
       <c r="B75">
-        <v>0.2947452704176197</v>
+        <v>77.411</v>
       </c>
     </row>
     <row r="76">
@@ -973,7 +973,7 @@
         <v>30498</v>
       </c>
       <c r="B76">
-        <v>0.3095149820232583</v>
+        <v>78.14700000000001</v>
       </c>
     </row>
     <row r="77">
@@ -981,7 +981,7 @@
         <v>30590</v>
       </c>
       <c r="B77">
-        <v>0.3222905143397195</v>
+        <v>78.613</v>
       </c>
     </row>
     <row r="78">
@@ -989,7 +989,7 @@
         <v>30682</v>
       </c>
       <c r="B78">
-        <v>0.326706696980315</v>
+        <v>79.164</v>
       </c>
     </row>
     <row r="79">
@@ -997,7 +997,7 @@
         <v>30773</v>
       </c>
       <c r="B79">
-        <v>0.338404446446523</v>
+        <v>79.846</v>
       </c>
     </row>
     <row r="80">
@@ -1005,7 +1005,7 @@
         <v>30864</v>
       </c>
       <c r="B80">
-        <v>0.3434512958458531</v>
+        <v>80.481</v>
       </c>
     </row>
     <row r="81">
@@ -1013,7 +1013,7 @@
         <v>30956</v>
       </c>
       <c r="B81">
-        <v>0.3535022009070916</v>
+        <v>80.883</v>
       </c>
     </row>
     <row r="82">
@@ -1021,7 +1021,7 @@
         <v>31048</v>
       </c>
       <c r="B82">
-        <v>0.3679564677652558</v>
+        <v>81.78700000000001</v>
       </c>
     </row>
     <row r="83">
@@ -1029,7 +1029,7 @@
         <v>31138</v>
       </c>
       <c r="B83">
-        <v>0.3746382988209178</v>
+        <v>82.261</v>
       </c>
     </row>
     <row r="84">
@@ -1037,7 +1037,7 @@
         <v>31229</v>
       </c>
       <c r="B84">
-        <v>0.3908100420589906</v>
+        <v>82.76900000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1045,7 +1045,7 @@
         <v>31321</v>
       </c>
       <c r="B85">
-        <v>0.3901156989288506</v>
+        <v>83.027</v>
       </c>
     </row>
     <row r="86">
@@ -1053,7 +1053,7 @@
         <v>31413</v>
       </c>
       <c r="B86">
-        <v>0.3934816724272516</v>
+        <v>83.437</v>
       </c>
     </row>
     <row r="87">
@@ -1061,7 +1061,7 @@
         <v>31503</v>
       </c>
       <c r="B87">
-        <v>0.401267009274151</v>
+        <v>83.62300000000001</v>
       </c>
     </row>
     <row r="88">
@@ -1069,7 +1069,7 @@
         <v>31594</v>
       </c>
       <c r="B88">
-        <v>0.4156132842623914</v>
+        <v>83.883</v>
       </c>
     </row>
     <row r="89">
@@ -1077,7 +1077,7 @@
         <v>31686</v>
       </c>
       <c r="B89">
-        <v>0.4190428139888964</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="90">
@@ -1085,7 +1085,7 @@
         <v>31778</v>
       </c>
       <c r="B90">
-        <v>0.4159843098022655</v>
+        <v>84.91800000000001</v>
       </c>
     </row>
     <row r="91">
@@ -1093,7 +1093,7 @@
         <v>31868</v>
       </c>
       <c r="B91">
-        <v>0.4266615952746848</v>
+        <v>85.361</v>
       </c>
     </row>
     <row r="92">
@@ -1101,7 +1101,7 @@
         <v>31959</v>
       </c>
       <c r="B92">
-        <v>0.4351688573967296</v>
+        <v>86.104</v>
       </c>
     </row>
     <row r="93">
@@ -1109,7 +1109,7 @@
         <v>32051</v>
       </c>
       <c r="B93">
-        <v>0.435155660427466</v>
+        <v>86.443</v>
       </c>
     </row>
     <row r="94">
@@ -1117,7 +1117,7 @@
         <v>32143</v>
       </c>
       <c r="B94">
-        <v>0.4489370324962314</v>
+        <v>87.13800000000001</v>
       </c>
     </row>
     <row r="95">
@@ -1125,7 +1125,7 @@
         <v>32234</v>
       </c>
       <c r="B95">
-        <v>0.4537686073009479</v>
+        <v>87.849</v>
       </c>
     </row>
     <row r="96">
@@ -1133,7 +1133,7 @@
         <v>32325</v>
       </c>
       <c r="B96">
-        <v>0.4596487837144325</v>
+        <v>88.742</v>
       </c>
     </row>
     <row r="97">
@@ -1141,7 +1141,7 @@
         <v>32417</v>
       </c>
       <c r="B97">
-        <v>0.4690798044529307</v>
+        <v>89.444</v>
       </c>
     </row>
     <row r="98">
@@ -1149,7 +1149,7 @@
         <v>32509</v>
       </c>
       <c r="B98">
-        <v>0.4699976185867074</v>
+        <v>90.339</v>
       </c>
     </row>
     <row r="99">
@@ -1157,7 +1157,7 @@
         <v>32599</v>
       </c>
       <c r="B99">
-        <v>0.4725160706026936</v>
+        <v>91.334</v>
       </c>
     </row>
     <row r="100">
@@ -1165,7 +1165,7 @@
         <v>32690</v>
       </c>
       <c r="B100">
-        <v>0.4797169721699</v>
+        <v>91.961</v>
       </c>
     </row>
     <row r="101">
@@ -1173,7 +1173,7 @@
         <v>32782</v>
       </c>
       <c r="B101">
-        <v>0.4820567641572713</v>
+        <v>92.42</v>
       </c>
     </row>
     <row r="102">
@@ -1181,7 +1181,7 @@
         <v>32874</v>
       </c>
       <c r="B102">
-        <v>0.4821412399043865</v>
+        <v>93.452</v>
       </c>
     </row>
     <row r="103">
@@ -1189,7 +1189,7 @@
         <v>32964</v>
       </c>
       <c r="B103">
-        <v>0.4833796692816894</v>
+        <v>94.52500000000001</v>
       </c>
     </row>
     <row r="104">
@@ -1197,7 +1197,7 @@
         <v>33055</v>
       </c>
       <c r="B104">
-        <v>0.4851671668367259</v>
+        <v>95.354</v>
       </c>
     </row>
     <row r="105">
@@ -1205,7 +1205,7 @@
         <v>33147</v>
       </c>
       <c r="B105">
-        <v>0.4752790044863722</v>
+        <v>96.191</v>
       </c>
     </row>
     <row r="106">
@@ -1213,7 +1213,7 @@
         <v>33239</v>
       </c>
       <c r="B106">
-        <v>0.4688886871685343</v>
+        <v>97.277</v>
       </c>
     </row>
     <row r="107">
@@ -1221,7 +1221,7 @@
         <v>33329</v>
       </c>
       <c r="B107">
-        <v>0.4755513615997447</v>
+        <v>97.809</v>
       </c>
     </row>
     <row r="108">
@@ -1229,7 +1229,7 @@
         <v>33420</v>
       </c>
       <c r="B108">
-        <v>0.4774371187899482</v>
+        <v>98.569</v>
       </c>
     </row>
     <row r="109">
@@ -1237,7 +1237,7 @@
         <v>33512</v>
       </c>
       <c r="B109">
-        <v>0.4737924796594055</v>
+        <v>98.889</v>
       </c>
     </row>
     <row r="110">
@@ -1245,7 +1245,7 @@
         <v>33604</v>
       </c>
       <c r="B110">
-        <v>0.4879412867745341</v>
+        <v>99.355</v>
       </c>
     </row>
     <row r="111">
@@ -1253,7 +1253,7 @@
         <v>33695</v>
       </c>
       <c r="B111">
-        <v>0.4914218490444569</v>
+        <v>99.735</v>
       </c>
     </row>
     <row r="112">
@@ -1261,7 +1261,7 @@
         <v>33786</v>
       </c>
       <c r="B112">
-        <v>0.4986437164175972</v>
+        <v>100.158</v>
       </c>
     </row>
     <row r="113">
@@ -1269,7 +1269,7 @@
         <v>33878</v>
       </c>
       <c r="B113">
-        <v>0.5071464344685981</v>
+        <v>100.726</v>
       </c>
     </row>
     <row r="114">
@@ -1277,7 +1277,7 @@
         <v>33970</v>
       </c>
       <c r="B114">
-        <v>0.5081857621501342</v>
+        <v>101.471</v>
       </c>
     </row>
     <row r="115">
@@ -1285,7 +1285,7 @@
         <v>34060</v>
       </c>
       <c r="B115">
-        <v>0.5147077044962352</v>
+        <v>101.923</v>
       </c>
     </row>
     <row r="116">
@@ -1293,7 +1293,7 @@
         <v>34151</v>
       </c>
       <c r="B116">
-        <v>0.5229380921943618</v>
+        <v>102.331</v>
       </c>
     </row>
     <row r="117">
@@ -1301,7 +1301,7 @@
         <v>34243</v>
       </c>
       <c r="B117">
-        <v>0.5289614489694565</v>
+        <v>102.737</v>
       </c>
     </row>
     <row r="118">
@@ -1309,7 +1309,7 @@
         <v>34335</v>
       </c>
       <c r="B118">
-        <v>0.5376275021960812</v>
+        <v>103.164</v>
       </c>
     </row>
     <row r="119">
@@ -1317,7 +1317,7 @@
         <v>34425</v>
       </c>
       <c r="B119">
-        <v>0.542583502629582</v>
+        <v>103.615</v>
       </c>
     </row>
     <row r="120">
@@ -1325,7 +1325,7 @@
         <v>34516</v>
       </c>
       <c r="B120">
-        <v>0.5470313137882221</v>
+        <v>104.432</v>
       </c>
     </row>
     <row r="121">
@@ -1333,7 +1333,7 @@
         <v>34608</v>
       </c>
       <c r="B121">
-        <v>0.5541786654010621</v>
+        <v>104.812</v>
       </c>
     </row>
     <row r="122">
@@ -1341,7 +1341,7 @@
         <v>34700</v>
       </c>
       <c r="B122">
-        <v>0.5543425669008943</v>
+        <v>105.313</v>
       </c>
     </row>
     <row r="123">
@@ -1349,7 +1349,7 @@
         <v>34790</v>
       </c>
       <c r="B123">
-        <v>0.5605095156131115</v>
+        <v>105.697</v>
       </c>
     </row>
     <row r="124">
@@ -1357,7 +1357,7 @@
         <v>34881</v>
       </c>
       <c r="B124">
-        <v>0.5666015835900664</v>
+        <v>106.023</v>
       </c>
     </row>
     <row r="125">
@@ -1365,7 +1365,7 @@
         <v>34973</v>
       </c>
       <c r="B125">
-        <v>0.5706737465008813</v>
+        <v>106.243</v>
       </c>
     </row>
     <row r="126">
@@ -1373,7 +1373,7 @@
         <v>35065</v>
       </c>
       <c r="B126">
-        <v>0.5773348453390015</v>
+        <v>106.669</v>
       </c>
     </row>
     <row r="127">
@@ -1381,7 +1381,7 @@
         <v>35156</v>
       </c>
       <c r="B127">
-        <v>0.5856369237906938</v>
+        <v>107.039</v>
       </c>
     </row>
     <row r="128">
@@ -1389,7 +1389,7 @@
         <v>35247</v>
       </c>
       <c r="B128">
-        <v>0.5891569135568355</v>
+        <v>107.453</v>
       </c>
     </row>
     <row r="129">
@@ -1397,7 +1397,7 @@
         <v>35339</v>
       </c>
       <c r="B129">
-        <v>0.5944195105084029</v>
+        <v>107.97</v>
       </c>
     </row>
     <row r="130">
@@ -1405,7 +1405,7 @@
         <v>35431</v>
       </c>
       <c r="B130">
-        <v>0.6005242495255718</v>
+        <v>108.621</v>
       </c>
     </row>
     <row r="131">
@@ -1413,7 +1413,7 @@
         <v>35521</v>
       </c>
       <c r="B131">
-        <v>0.602991037378088</v>
+        <v>109.016</v>
       </c>
     </row>
     <row r="132">
@@ -1421,7 +1421,7 @@
         <v>35612</v>
       </c>
       <c r="B132">
-        <v>0.6166687516706397</v>
+        <v>109.317</v>
       </c>
     </row>
     <row r="133">
@@ -1429,7 +1429,7 @@
         <v>35704</v>
       </c>
       <c r="B133">
-        <v>0.6241660602927319</v>
+        <v>109.595</v>
       </c>
     </row>
     <row r="134">
@@ -1437,7 +1437,7 @@
         <v>35796</v>
       </c>
       <c r="B134">
-        <v>0.6328787005095102</v>
+        <v>109.715</v>
       </c>
     </row>
     <row r="135">
@@ -1445,7 +1445,7 @@
         <v>35886</v>
       </c>
       <c r="B135">
-        <v>0.646153495852551</v>
+        <v>109.754</v>
       </c>
     </row>
     <row r="136">
@@ -1453,7 +1453,7 @@
         <v>35977</v>
       </c>
       <c r="B136">
-        <v>0.6553454719966547</v>
+        <v>110.068</v>
       </c>
     </row>
     <row r="137">
@@ -1461,7 +1461,7 @@
         <v>36069</v>
       </c>
       <c r="B137">
-        <v>0.6657447645702148</v>
+        <v>110.171</v>
       </c>
     </row>
     <row r="138">
@@ -1469,7 +1469,7 @@
         <v>36161</v>
       </c>
       <c r="B138">
-        <v>0.6719292006423898</v>
+        <v>110.523</v>
       </c>
     </row>
     <row r="139">
@@ -1477,7 +1477,7 @@
         <v>36251</v>
       </c>
       <c r="B139">
-        <v>0.6847159959252371</v>
+        <v>110.956</v>
       </c>
     </row>
     <row r="140">
@@ -1485,7 +1485,7 @@
         <v>36342</v>
       </c>
       <c r="B140">
-        <v>0.692168628675057</v>
+        <v>111.345</v>
       </c>
     </row>
     <row r="141">
@@ -1493,7 +1493,7 @@
         <v>36434</v>
       </c>
       <c r="B141">
-        <v>0.7015036491010425</v>
+        <v>111.721</v>
       </c>
     </row>
     <row r="142">
@@ -1501,7 +1501,7 @@
         <v>36526</v>
       </c>
       <c r="B142">
-        <v>0.7033902285533951</v>
+        <v>112.632</v>
       </c>
     </row>
     <row r="143">
@@ -1509,7 +1509,7 @@
         <v>36617</v>
       </c>
       <c r="B143">
-        <v>0.7065799124526175</v>
+        <v>113.131</v>
       </c>
     </row>
     <row r="144">
@@ -1517,7 +1517,7 @@
         <v>36708</v>
       </c>
       <c r="B144">
-        <v>0.7130009136884783</v>
+        <v>113.536</v>
       </c>
     </row>
     <row r="145">
@@ -1525,7 +1525,7 @@
         <v>36800</v>
       </c>
       <c r="B145">
-        <v>0.71838162051746</v>
+        <v>113.908</v>
       </c>
     </row>
     <row r="146">
@@ -1533,7 +1533,7 @@
         <v>36892</v>
       </c>
       <c r="B146">
-        <v>0.7199603414257192</v>
+        <v>114.627</v>
       </c>
     </row>
     <row r="147">
@@ -1541,7 +1541,7 @@
         <v>36982</v>
       </c>
       <c r="B147">
-        <v>0.7195055098260759</v>
+        <v>115.406</v>
       </c>
     </row>
     <row r="148">
@@ -1549,7 +1549,7 @@
         <v>37073</v>
       </c>
       <c r="B148">
-        <v>0.7207020807558271</v>
+        <v>115.61</v>
       </c>
     </row>
     <row r="149">
@@ -1557,7 +1557,7 @@
         <v>37165</v>
       </c>
       <c r="B149">
-        <v>0.7343315905014456</v>
+        <v>116.04</v>
       </c>
     </row>
     <row r="150">
@@ -1565,7 +1565,7 @@
         <v>37257</v>
       </c>
       <c r="B150">
-        <v>0.7352799579768932</v>
+        <v>116.036</v>
       </c>
     </row>
     <row r="151">
@@ -1573,7 +1573,7 @@
         <v>37347</v>
       </c>
       <c r="B151">
-        <v>0.7386382348192249</v>
+        <v>116.608</v>
       </c>
     </row>
     <row r="152">
@@ -1581,7 +1581,7 @@
         <v>37438</v>
       </c>
       <c r="B152">
-        <v>0.7411747909274591</v>
+        <v>116.874</v>
       </c>
     </row>
     <row r="153">
@@ -1589,7 +1589,7 @@
         <v>37530</v>
       </c>
       <c r="B153">
-        <v>0.7415848883262211</v>
+        <v>117.328</v>
       </c>
     </row>
     <row r="154">
@@ -1597,7 +1597,7 @@
         <v>37622</v>
       </c>
       <c r="B154">
-        <v>0.7395658264273357</v>
+        <v>117.899</v>
       </c>
     </row>
     <row r="155">
@@ -1605,7 +1605,7 @@
         <v>37712</v>
       </c>
       <c r="B155">
-        <v>0.7454724617132</v>
+        <v>118.011</v>
       </c>
     </row>
     <row r="156">
@@ -1613,7 +1613,7 @@
         <v>37803</v>
       </c>
       <c r="B156">
-        <v>0.7563206178009501</v>
+        <v>118.394</v>
       </c>
     </row>
     <row r="157">
@@ -1621,7 +1621,7 @@
         <v>37895</v>
       </c>
       <c r="B157">
-        <v>0.7584966832791191</v>
+        <v>118.727</v>
       </c>
     </row>
     <row r="158">
@@ -1629,7 +1629,7 @@
         <v>37987</v>
       </c>
       <c r="B158">
-        <v>0.7696334556628752</v>
+        <v>119.733</v>
       </c>
     </row>
     <row r="159">
@@ -1637,7 +1637,7 @@
         <v>38078</v>
       </c>
       <c r="B159">
-        <v>0.7741356156889592</v>
+        <v>120.625</v>
       </c>
     </row>
     <row r="160">
@@ -1645,7 +1645,7 @@
         <v>38169</v>
       </c>
       <c r="B160">
-        <v>0.7805726657485108</v>
+        <v>121.357</v>
       </c>
     </row>
     <row r="161">
@@ -1653,7 +1653,7 @@
         <v>38261</v>
       </c>
       <c r="B161">
-        <v>0.7877403180016733</v>
+        <v>122.491</v>
       </c>
     </row>
     <row r="162">
@@ -1661,7 +1661,7 @@
         <v>38353</v>
       </c>
       <c r="B162">
-        <v>0.7917619914622445</v>
+        <v>123.659</v>
       </c>
     </row>
     <row r="163">
@@ -1669,7 +1669,7 @@
         <v>38443</v>
       </c>
       <c r="B163">
-        <v>0.7992746018376047</v>
+        <v>124.323</v>
       </c>
     </row>
     <row r="164">
@@ -1677,7 +1677,7 @@
         <v>38534</v>
       </c>
       <c r="B164">
-        <v>0.8055742340445695</v>
+        <v>125.637</v>
       </c>
     </row>
     <row r="165">
@@ -1685,7 +1685,7 @@
         <v>38626</v>
       </c>
       <c r="B165">
-        <v>0.8040470879301891</v>
+        <v>126.926</v>
       </c>
     </row>
     <row r="166">
@@ -1693,7 +1693,7 @@
         <v>38718</v>
       </c>
       <c r="B166">
-        <v>0.8133135268195737</v>
+        <v>127.907</v>
       </c>
     </row>
     <row r="167">
@@ -1701,7 +1701,7 @@
         <v>38808</v>
       </c>
       <c r="B167">
-        <v>0.8167571689996982</v>
+        <v>128.825</v>
       </c>
     </row>
     <row r="168">
@@ -1709,7 +1709,7 @@
         <v>38899</v>
       </c>
       <c r="B168">
-        <v>0.820506293957179</v>
+        <v>129.499</v>
       </c>
     </row>
     <row r="169">
@@ -1717,7 +1717,7 @@
         <v>38991</v>
       </c>
       <c r="B169">
-        <v>0.8277140995582468</v>
+        <v>129.982</v>
       </c>
     </row>
   </sheetData>
